--- a/biology/Histoire de la zoologie et de la botanique/Kitāb_al-hayawān/Kitāb_al-hayawān.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kitāb_al-hayawān/Kitāb_al-hayawān.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kit%C4%81b_al-hayaw%C4%81n</t>
+          <t>Kitāb_al-hayawān</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kitāb al-hayawān (كتاب الحيوان, soit le Livre des animaux) est le nom porté par plusieurs ouvrages du Moyen Âge dont le plus célèbre est une compilation du Moyen Âge d'ouvrages d'Aristote, traduits en arabe, concernant la zoologie. Les autres auteurs ont très vraisemblablement eu connaissance de cet ouvrage au moins.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kit%C4%81b_al-hayaw%C4%81n</t>
+          <t>Kitāb_al-hayawān</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>La compilation aristotélicienne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ouvrage attribué à un certain Yahyà bin al-Bitrīq est constitué au total de 19 traités ou maqālāt en arabe et a pour sources :
 Histoire des animaux pour les 10 premiers maqālāt, le dixième étant considéré comme n'étant pas d'Aristote
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kit%C4%81b_al-hayaw%C4%81n</t>
+          <t>Kitāb_al-hayawān</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>L'œuvre de Al-Jahiz</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ouvrage regroupe sept volumes d'anecdotes, de proverbes et de descriptions sous un format poétique. Plus de 350 animaux y sont présentés. Al-Jahiz souligne l'influence de l'environnement, énonce des principes qui s'apparentent à la théorie de la sélection naturelle, du déterminisme environnemental et des chaines alimentaires. Bien qu'il ait été accusé de plagiat par al-Khatib al-Baghdadi au XIe siècle[1], les idées que présente Al-Jahiz sont bien nouvelles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ouvrage regroupe sept volumes d'anecdotes, de proverbes et de descriptions sous un format poétique. Plus de 350 animaux y sont présentés. Al-Jahiz souligne l'influence de l'environnement, énonce des principes qui s'apparentent à la théorie de la sélection naturelle, du déterminisme environnemental et des chaines alimentaires. Bien qu'il ait été accusé de plagiat par al-Khatib al-Baghdadi au XIe siècle, les idées que présente Al-Jahiz sont bien nouvelles.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kit%C4%81b_al-hayaw%C4%81n</t>
+          <t>Kitāb_al-hayawān</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Extraits du Kitāb al-hayawān d'Al-Jahiz en ligne et commentés sur BibNum.</t>
         </is>
